--- a/164 Mini Project Data .xlsx
+++ b/164 Mini Project Data .xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitamehendale/Downloads/ieor164-mini-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CBEBDE-5560-0743-85BA-B38FC6B7EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AA1486-53A2-F548-9BC7-77338C2AB5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="740" windowWidth="17500" windowHeight="16960" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="740" windowWidth="17980" windowHeight="16960" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
     <sheet name="Lodging Options" sheetId="2" r:id="rId2"/>
     <sheet name="Node of Network Flow" sheetId="3" r:id="rId3"/>
     <sheet name="Distances between actitivities" sheetId="4" r:id="rId4"/>
-    <sheet name="=" sheetId="7" r:id="rId5"/>
+    <sheet name="Travel Time" sheetId="7" r:id="rId5"/>
     <sheet name="Gas Consumption Between Activit" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -400,7 +400,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,13 +428,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -456,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -496,6 +509,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="131" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1672,7 @@
     <col min="20" max="20" width="5.5" customWidth="1"/>
     <col min="21" max="21" width="5.33203125" customWidth="1"/>
     <col min="22" max="22" width="4.83203125" customWidth="1"/>
-    <col min="23" max="23" width="5.33203125" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="16" customWidth="1"/>
     <col min="24" max="24" width="5" customWidth="1"/>
     <col min="25" max="25" width="5.1640625" customWidth="1"/>
     <col min="26" max="26" width="4.83203125" customWidth="1"/>
@@ -1727,7 +1746,7 @@
       <c r="V1">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="16">
         <v>21</v>
       </c>
       <c r="X1">
@@ -1820,6 +1839,9 @@
       <c r="V2">
         <v>352</v>
       </c>
+      <c r="W2" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X2">
         <v>338</v>
       </c>
@@ -1909,6 +1931,30 @@
       <c r="V3">
         <v>352</v>
       </c>
+      <c r="W3" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X3">
+        <v>338</v>
+      </c>
+      <c r="Y3">
+        <v>317</v>
+      </c>
+      <c r="Z3">
+        <v>343</v>
+      </c>
+      <c r="AA3">
+        <v>343</v>
+      </c>
+      <c r="AB3">
+        <v>354</v>
+      </c>
+      <c r="AC3">
+        <v>344</v>
+      </c>
+      <c r="AD3">
+        <v>354</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1977,6 +2023,9 @@
       <c r="V4">
         <v>354</v>
       </c>
+      <c r="W4" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X4">
         <v>341</v>
       </c>
@@ -2066,6 +2115,9 @@
       <c r="V5">
         <v>351</v>
       </c>
+      <c r="W5" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X5">
         <v>337</v>
       </c>
@@ -2155,6 +2207,9 @@
       <c r="V6">
         <v>351</v>
       </c>
+      <c r="W6" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X6">
         <v>337</v>
       </c>
@@ -2244,6 +2299,9 @@
       <c r="V7">
         <v>370</v>
       </c>
+      <c r="W7" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X7">
         <v>356</v>
       </c>
@@ -2333,6 +2391,9 @@
       <c r="V8">
         <v>374</v>
       </c>
+      <c r="W8" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X8">
         <v>360</v>
       </c>
@@ -2422,6 +2483,9 @@
       <c r="V9">
         <v>407</v>
       </c>
+      <c r="W9" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X9">
         <v>393</v>
       </c>
@@ -2512,6 +2576,9 @@
       <c r="V10">
         <v>373</v>
       </c>
+      <c r="W10" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X10">
         <v>359</v>
       </c>
@@ -2601,6 +2668,9 @@
       <c r="V11">
         <v>373</v>
       </c>
+      <c r="W11" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X11">
         <v>360</v>
       </c>
@@ -2691,6 +2761,9 @@
       <c r="V12">
         <v>392</v>
       </c>
+      <c r="W12" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X12">
         <v>379</v>
       </c>
@@ -2780,6 +2853,9 @@
       <c r="V13">
         <v>233</v>
       </c>
+      <c r="W13" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X13">
         <v>219</v>
       </c>
@@ -2845,6 +2921,54 @@
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>224</v>
+      </c>
+      <c r="T14">
+        <v>220</v>
+      </c>
+      <c r="U14">
+        <v>222</v>
+      </c>
+      <c r="V14">
+        <v>233</v>
+      </c>
+      <c r="W14" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X14">
+        <v>219</v>
+      </c>
+      <c r="Y14">
+        <v>258</v>
+      </c>
+      <c r="Z14">
+        <v>284</v>
+      </c>
+      <c r="AA14">
+        <v>284</v>
+      </c>
+      <c r="AB14">
+        <v>295</v>
+      </c>
+      <c r="AC14">
+        <v>285</v>
+      </c>
+      <c r="AD14">
+        <v>295</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -2886,8 +3010,56 @@
       <c r="M15">
         <v>0</v>
       </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>224</v>
+      </c>
+      <c r="T15">
+        <v>220</v>
+      </c>
+      <c r="U15">
+        <v>222</v>
+      </c>
+      <c r="V15">
+        <v>233</v>
+      </c>
+      <c r="W15" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X15">
+        <v>219</v>
+      </c>
+      <c r="Y15">
+        <v>258</v>
+      </c>
+      <c r="Z15">
+        <v>284</v>
+      </c>
+      <c r="AA15">
+        <v>284</v>
+      </c>
+      <c r="AB15">
+        <v>295</v>
+      </c>
+      <c r="AC15">
+        <v>285</v>
+      </c>
+      <c r="AD15">
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -2930,8 +3102,56 @@
       <c r="M16">
         <v>0</v>
       </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16">
         <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>224</v>
+      </c>
+      <c r="T16">
+        <v>220</v>
+      </c>
+      <c r="U16">
+        <v>222</v>
+      </c>
+      <c r="V16">
+        <v>233</v>
+      </c>
+      <c r="W16" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X16">
+        <v>219</v>
+      </c>
+      <c r="Y16">
+        <v>258</v>
+      </c>
+      <c r="Z16">
+        <v>284</v>
+      </c>
+      <c r="AA16">
+        <v>284</v>
+      </c>
+      <c r="AB16">
+        <v>295</v>
+      </c>
+      <c r="AC16">
+        <v>285</v>
+      </c>
+      <c r="AD16">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -2974,8 +3194,56 @@
       <c r="M17">
         <v>0</v>
       </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
       <c r="Q17">
         <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>224</v>
+      </c>
+      <c r="T17">
+        <v>220</v>
+      </c>
+      <c r="U17">
+        <v>222</v>
+      </c>
+      <c r="V17">
+        <v>233</v>
+      </c>
+      <c r="W17" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X17">
+        <v>219</v>
+      </c>
+      <c r="Y17">
+        <v>258</v>
+      </c>
+      <c r="Z17">
+        <v>284</v>
+      </c>
+      <c r="AA17">
+        <v>284</v>
+      </c>
+      <c r="AB17">
+        <v>295</v>
+      </c>
+      <c r="AC17">
+        <v>285</v>
+      </c>
+      <c r="AD17">
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
@@ -3018,8 +3286,56 @@
       <c r="M18">
         <v>0</v>
       </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
       <c r="R18">
         <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>224</v>
+      </c>
+      <c r="T18" s="15">
+        <v>220</v>
+      </c>
+      <c r="U18" s="15">
+        <v>222</v>
+      </c>
+      <c r="V18" s="15">
+        <v>233</v>
+      </c>
+      <c r="W18" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X18" s="15">
+        <v>219</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>258</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>284</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>284</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>295</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>285</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
@@ -3062,8 +3378,56 @@
       <c r="M19">
         <v>224</v>
       </c>
+      <c r="N19">
+        <v>224</v>
+      </c>
+      <c r="O19">
+        <v>224</v>
+      </c>
+      <c r="P19">
+        <v>224</v>
+      </c>
+      <c r="Q19">
+        <v>224</v>
+      </c>
+      <c r="R19" s="15">
+        <v>224</v>
+      </c>
       <c r="S19">
         <v>0</v>
+      </c>
+      <c r="T19">
+        <v>4.2</v>
+      </c>
+      <c r="U19">
+        <v>5.4</v>
+      </c>
+      <c r="V19">
+        <v>10.5</v>
+      </c>
+      <c r="W19" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X19">
+        <v>23.3</v>
+      </c>
+      <c r="Y19">
+        <v>271</v>
+      </c>
+      <c r="Z19">
+        <v>278</v>
+      </c>
+      <c r="AA19">
+        <v>278</v>
+      </c>
+      <c r="AB19">
+        <v>290</v>
+      </c>
+      <c r="AC19">
+        <v>273</v>
+      </c>
+      <c r="AD19">
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
@@ -3106,8 +3470,56 @@
       <c r="M20">
         <v>220</v>
       </c>
+      <c r="N20">
+        <v>220</v>
+      </c>
+      <c r="O20">
+        <v>220</v>
+      </c>
+      <c r="P20">
+        <v>220</v>
+      </c>
+      <c r="Q20">
+        <v>220</v>
+      </c>
+      <c r="R20" s="15">
+        <v>220</v>
+      </c>
+      <c r="S20">
+        <v>4.2</v>
+      </c>
       <c r="T20">
         <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2.1</v>
+      </c>
+      <c r="V20">
+        <v>14.6</v>
+      </c>
+      <c r="W20" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X20">
+        <v>26.9</v>
+      </c>
+      <c r="Y20">
+        <v>267</v>
+      </c>
+      <c r="Z20">
+        <v>275</v>
+      </c>
+      <c r="AA20">
+        <v>275</v>
+      </c>
+      <c r="AB20">
+        <v>286</v>
+      </c>
+      <c r="AC20">
+        <v>269</v>
+      </c>
+      <c r="AD20">
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
@@ -3150,8 +3562,56 @@
       <c r="M21">
         <v>222</v>
       </c>
+      <c r="N21">
+        <v>222</v>
+      </c>
+      <c r="O21">
+        <v>222</v>
+      </c>
+      <c r="P21">
+        <v>222</v>
+      </c>
+      <c r="Q21">
+        <v>222</v>
+      </c>
+      <c r="R21" s="15">
+        <v>222</v>
+      </c>
+      <c r="S21">
+        <v>5.4</v>
+      </c>
+      <c r="T21">
+        <v>2.1</v>
+      </c>
       <c r="U21">
         <v>0</v>
+      </c>
+      <c r="V21">
+        <v>11.3</v>
+      </c>
+      <c r="W21" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X21">
+        <v>28.2</v>
+      </c>
+      <c r="Y21">
+        <v>269</v>
+      </c>
+      <c r="Z21">
+        <v>276</v>
+      </c>
+      <c r="AA21">
+        <v>276</v>
+      </c>
+      <c r="AB21">
+        <v>287</v>
+      </c>
+      <c r="AC21">
+        <v>271</v>
+      </c>
+      <c r="AD21">
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
@@ -3194,16 +3654,148 @@
       <c r="M22">
         <v>233</v>
       </c>
+      <c r="N22">
+        <v>233</v>
+      </c>
+      <c r="O22">
+        <v>233</v>
+      </c>
+      <c r="P22">
+        <v>233</v>
+      </c>
+      <c r="Q22">
+        <v>233</v>
+      </c>
+      <c r="R22" s="15">
+        <v>233</v>
+      </c>
+      <c r="S22">
+        <v>10.5</v>
+      </c>
+      <c r="T22">
+        <v>14.6</v>
+      </c>
+      <c r="U22">
+        <v>11.3</v>
+      </c>
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="W22" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X22">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>280</v>
+      </c>
+      <c r="Z22">
+        <v>248</v>
+      </c>
+      <c r="AA22">
+        <v>248</v>
+      </c>
+      <c r="AB22">
+        <v>260</v>
+      </c>
+      <c r="AC22">
+        <v>243</v>
+      </c>
+      <c r="AD22">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="W23">
-        <v>0</v>
+      <c r="B23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="M23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="P23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="R23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="S23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="T23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="U23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="V23" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>280</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>248</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>248</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>260</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>243</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
@@ -3246,8 +3838,56 @@
       <c r="M24">
         <v>219</v>
       </c>
+      <c r="N24">
+        <v>219</v>
+      </c>
+      <c r="O24">
+        <v>219</v>
+      </c>
+      <c r="P24">
+        <v>219</v>
+      </c>
+      <c r="Q24">
+        <v>219</v>
+      </c>
+      <c r="R24" s="15">
+        <v>219</v>
+      </c>
+      <c r="S24">
+        <v>23.3</v>
+      </c>
+      <c r="T24">
+        <v>26.9</v>
+      </c>
+      <c r="U24">
+        <v>28.2</v>
+      </c>
+      <c r="V24">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W24" s="16">
+        <v>1000000</v>
+      </c>
       <c r="X24">
         <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>266</v>
+      </c>
+      <c r="Z24">
+        <v>273</v>
+      </c>
+      <c r="AA24">
+        <v>273</v>
+      </c>
+      <c r="AB24">
+        <v>284</v>
+      </c>
+      <c r="AC24">
+        <v>268</v>
+      </c>
+      <c r="AD24">
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
@@ -3290,8 +3930,56 @@
       <c r="M25">
         <v>258</v>
       </c>
+      <c r="N25">
+        <v>258</v>
+      </c>
+      <c r="O25">
+        <v>258</v>
+      </c>
+      <c r="P25">
+        <v>258</v>
+      </c>
+      <c r="Q25">
+        <v>258</v>
+      </c>
+      <c r="R25" s="15">
+        <v>258</v>
+      </c>
+      <c r="S25">
+        <v>271</v>
+      </c>
+      <c r="T25">
+        <v>267</v>
+      </c>
+      <c r="U25">
+        <v>269</v>
+      </c>
+      <c r="V25">
+        <v>280</v>
+      </c>
+      <c r="W25" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X25">
+        <v>266</v>
+      </c>
       <c r="Y25">
         <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>30.2</v>
+      </c>
+      <c r="AA25">
+        <v>30.2</v>
+      </c>
+      <c r="AB25">
+        <v>41.5</v>
+      </c>
+      <c r="AC25">
+        <v>31.7</v>
+      </c>
+      <c r="AD25">
+        <v>41.2</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
@@ -3334,8 +4022,56 @@
       <c r="M26">
         <v>284</v>
       </c>
+      <c r="N26">
+        <v>284</v>
+      </c>
+      <c r="O26">
+        <v>284</v>
+      </c>
+      <c r="P26">
+        <v>284</v>
+      </c>
+      <c r="Q26">
+        <v>284</v>
+      </c>
+      <c r="R26" s="15">
+        <v>284</v>
+      </c>
+      <c r="S26">
+        <v>278</v>
+      </c>
+      <c r="T26">
+        <v>275</v>
+      </c>
+      <c r="U26">
+        <v>276</v>
+      </c>
+      <c r="V26">
+        <v>248</v>
+      </c>
+      <c r="W26" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X26">
+        <v>273</v>
+      </c>
+      <c r="Y26">
+        <v>30.2</v>
+      </c>
       <c r="Z26">
         <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>11.4</v>
+      </c>
+      <c r="AC26">
+        <v>5.7</v>
+      </c>
+      <c r="AD26">
+        <v>11.1</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
@@ -3378,8 +4114,56 @@
       <c r="M27">
         <v>284</v>
       </c>
+      <c r="N27">
+        <v>284</v>
+      </c>
+      <c r="O27">
+        <v>284</v>
+      </c>
+      <c r="P27">
+        <v>284</v>
+      </c>
+      <c r="Q27">
+        <v>284</v>
+      </c>
+      <c r="R27" s="15">
+        <v>284</v>
+      </c>
+      <c r="S27">
+        <v>278</v>
+      </c>
+      <c r="T27">
+        <v>275</v>
+      </c>
+      <c r="U27">
+        <v>276</v>
+      </c>
+      <c r="V27">
+        <v>248</v>
+      </c>
+      <c r="W27" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X27">
+        <v>273</v>
+      </c>
+      <c r="Y27">
+        <v>30.2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
       <c r="AA27">
         <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>11.4</v>
+      </c>
+      <c r="AC27">
+        <v>5.7</v>
+      </c>
+      <c r="AD27">
+        <v>11.1</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
@@ -3423,8 +4207,56 @@
       <c r="M28">
         <v>295</v>
       </c>
+      <c r="N28">
+        <v>295</v>
+      </c>
+      <c r="O28">
+        <v>295</v>
+      </c>
+      <c r="P28">
+        <v>295</v>
+      </c>
+      <c r="Q28">
+        <v>295</v>
+      </c>
+      <c r="R28" s="15">
+        <v>295</v>
+      </c>
+      <c r="S28">
+        <v>290</v>
+      </c>
+      <c r="T28">
+        <v>286</v>
+      </c>
+      <c r="U28">
+        <v>287</v>
+      </c>
+      <c r="V28">
+        <v>260</v>
+      </c>
+      <c r="W28" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X28">
+        <v>284</v>
+      </c>
+      <c r="Y28">
+        <v>41.5</v>
+      </c>
+      <c r="Z28">
+        <v>11.4</v>
+      </c>
+      <c r="AA28">
+        <v>11.4</v>
+      </c>
       <c r="AB28">
         <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>17</v>
+      </c>
+      <c r="AD28">
+        <v>9.4</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
@@ -3467,8 +4299,56 @@
       <c r="M29">
         <v>285</v>
       </c>
+      <c r="N29">
+        <v>285</v>
+      </c>
+      <c r="O29">
+        <v>285</v>
+      </c>
+      <c r="P29">
+        <v>285</v>
+      </c>
+      <c r="Q29">
+        <v>285</v>
+      </c>
+      <c r="R29" s="15">
+        <v>285</v>
+      </c>
+      <c r="S29">
+        <v>273</v>
+      </c>
+      <c r="T29">
+        <v>269</v>
+      </c>
+      <c r="U29">
+        <v>271</v>
+      </c>
+      <c r="V29">
+        <v>243</v>
+      </c>
+      <c r="W29" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X29">
+        <v>268</v>
+      </c>
+      <c r="Y29">
+        <v>31.7</v>
+      </c>
+      <c r="Z29">
+        <v>5.7</v>
+      </c>
+      <c r="AA29">
+        <v>5.7</v>
+      </c>
+      <c r="AB29">
+        <v>17</v>
+      </c>
       <c r="AC29">
         <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>16.7</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
@@ -3510,6 +4390,54 @@
       </c>
       <c r="M30">
         <v>295</v>
+      </c>
+      <c r="N30">
+        <v>295</v>
+      </c>
+      <c r="O30">
+        <v>295</v>
+      </c>
+      <c r="P30">
+        <v>295</v>
+      </c>
+      <c r="Q30">
+        <v>295</v>
+      </c>
+      <c r="R30" s="15">
+        <v>295</v>
+      </c>
+      <c r="S30">
+        <v>289</v>
+      </c>
+      <c r="T30">
+        <v>286</v>
+      </c>
+      <c r="U30">
+        <v>287</v>
+      </c>
+      <c r="V30">
+        <v>259</v>
+      </c>
+      <c r="W30" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="X30">
+        <v>284</v>
+      </c>
+      <c r="Y30">
+        <v>41.2</v>
+      </c>
+      <c r="Z30">
+        <v>11.1</v>
+      </c>
+      <c r="AA30">
+        <v>11.1</v>
+      </c>
+      <c r="AB30">
+        <v>9.4</v>
+      </c>
+      <c r="AC30">
+        <v>16.7</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -3523,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BBA5B2-16EB-3B43-8A69-291A3597013E}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:AD13"/>
+    <sheetView topLeftCell="C5" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3547,14 +4475,14 @@
     <col min="18" max="19" width="5.83203125" customWidth="1"/>
     <col min="20" max="21" width="5.5" customWidth="1"/>
     <col min="22" max="22" width="5.83203125" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="16" customWidth="1"/>
     <col min="24" max="25" width="5.6640625" customWidth="1"/>
     <col min="26" max="28" width="5.83203125" customWidth="1"/>
     <col min="29" max="29" width="5.6640625" customWidth="1"/>
     <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3618,7 +4546,7 @@
       <c r="V1">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="16">
         <v>21</v>
       </c>
       <c r="X1">
@@ -3643,7 +4571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -3729,7 +4657,7 @@
         <f>6+39/60</f>
         <v>6.65</v>
       </c>
-      <c r="W2" s="14"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="14">
         <f>6+20/60</f>
         <v>6.333333333333333</v>
@@ -3759,7 +4687,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3846,7 +4774,7 @@
         <f>6+45/60</f>
         <v>6.75</v>
       </c>
-      <c r="W3" s="14"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="14">
         <f>6+26/60</f>
         <v>6.4333333333333336</v>
@@ -3876,7 +4804,7 @@
         <v>6.9833333333333334</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -3963,7 +4891,7 @@
         <f>6+47/60</f>
         <v>6.7833333333333332</v>
       </c>
-      <c r="W4" s="14"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="14">
         <f>6+27/60</f>
         <v>6.45</v>
@@ -3993,7 +4921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4080,7 +5008,7 @@
         <f>6+43/60</f>
         <v>6.7166666666666668</v>
       </c>
-      <c r="W5" s="14"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="14">
         <f>6+24/60</f>
         <v>6.4</v>
@@ -4110,7 +5038,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4197,7 +5125,7 @@
         <f>6+43/60</f>
         <v>6.7166666666666668</v>
       </c>
-      <c r="W6" s="14"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="14">
         <f>6+24/60</f>
         <v>6.4</v>
@@ -4227,7 +5155,7 @@
         <v>6.9333333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4314,7 +5242,7 @@
         <f>6+18/60</f>
         <v>6.3</v>
       </c>
-      <c r="W7" s="14"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="14">
         <f>5+58/60</f>
         <v>5.9666666666666668</v>
@@ -4344,7 +5272,7 @@
         <v>6.5166666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4431,7 +5359,7 @@
         <f>6+29/60</f>
         <v>6.4833333333333334</v>
       </c>
-      <c r="W8" s="14"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="14">
         <f>6+9/60</f>
         <v>6.15</v>
@@ -4461,7 +5389,7 @@
         <v>6.6833333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4547,7 +5475,7 @@
       <c r="V9" s="14">
         <v>7.5</v>
       </c>
-      <c r="W9" s="14"/>
+      <c r="W9" s="17"/>
       <c r="X9" s="14">
         <f>7+10/60</f>
         <v>7.166666666666667</v>
@@ -4577,7 +5505,7 @@
         <v>7.7166666666666668</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4664,7 +5592,7 @@
         <f>6+28/60</f>
         <v>6.4666666666666668</v>
       </c>
-      <c r="W10" s="14"/>
+      <c r="W10" s="17"/>
       <c r="X10" s="14">
         <f>6+8/60</f>
         <v>6.1333333333333337</v>
@@ -4691,7 +5619,7 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4778,7 +5706,7 @@
         <f>6+27/60</f>
         <v>6.45</v>
       </c>
-      <c r="W11" s="14"/>
+      <c r="W11" s="17"/>
       <c r="X11" s="14">
         <f>6+7/60</f>
         <v>6.1166666666666663</v>
@@ -4808,7 +5736,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4889,7 +5817,7 @@
         <f>7+4/60</f>
         <v>7.0666666666666664</v>
       </c>
-      <c r="W12" s="14"/>
+      <c r="W12" s="17"/>
       <c r="X12" s="14">
         <f>6+44/60</f>
         <v>6.7333333333333334</v>
@@ -4917,7 +5845,7 @@
         <v>7.2666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4998,7 +5926,7 @@
         <f>5+10/60</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="W13" s="14"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="14">
         <f>4+5/6</f>
         <v>4.833333333333333</v>
@@ -5028,7 +5956,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -5081,24 +6009,65 @@
       <c r="N14" s="14">
         <v>0</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="T14" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="U14" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="V14" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Y14" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z14" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AA14" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AB14" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="AC14" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AD14" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -5148,27 +6117,68 @@
       <c r="M15" s="14">
         <v>0</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
       <c r="O15" s="14">
         <v>0</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+      <c r="S15" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="T15" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="U15" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="V15" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Y15" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z15" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AB15" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="AC15" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AD15" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -5218,27 +6228,70 @@
       <c r="M16" s="14">
         <v>0</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
       <c r="P16" s="14">
         <v>0</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+      <c r="S16" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="T16" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="U16" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="V16" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Y16" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z16" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AB16" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="AC16" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AD16" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -5288,27 +6341,69 @@
       <c r="M17" s="14">
         <v>0</v>
       </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
       <c r="Q17" s="14">
         <v>0</v>
       </c>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+      <c r="S17" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="T17" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="U17" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="V17" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="W17" s="17"/>
+      <c r="X17" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Y17" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z17" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AA17" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AB17" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="AC17" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AD17" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="AE17" s="14"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -5358,27 +6453,68 @@
       <c r="M18" s="14">
         <v>0</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
       <c r="R18" s="14">
         <v>0</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="S18" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="T18" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="U18" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="V18" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="W18" s="17"/>
+      <c r="X18" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Y18" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z18" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AA18" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="AB18" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="AC18" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AD18" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -5430,27 +6566,72 @@
         <f>5+5/60</f>
         <v>5.083333333333333</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="N19" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="O19" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="P19" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="Q19" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="R19" s="14">
+        <f>5+5/60</f>
+        <v>5.083333333333333</v>
+      </c>
       <c r="S19" s="14">
         <v>0</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="T19" s="14">
+        <f>8/60</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="U19" s="14">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="V19" s="14">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="W19" s="17"/>
+      <c r="X19" s="14">
+        <f>36/60</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y19" s="14">
+        <f>4+49/60</f>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="Z19" s="14">
+        <f>4+41/60</f>
+        <v>4.6833333333333336</v>
+      </c>
+      <c r="AA19" s="14">
+        <f>4+41/60</f>
+        <v>4.6833333333333336</v>
+      </c>
+      <c r="AB19" s="14">
+        <f>4+54/60</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC19" s="14">
+        <f>4+34/60</f>
+        <v>4.5666666666666664</v>
+      </c>
+      <c r="AD19" s="14">
+        <f>4+58/60</f>
+        <v>4.9666666666666668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -5501,27 +6682,72 @@
         <f>4+59/60</f>
         <v>4.9833333333333334</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="N20" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="O20" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="P20" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="Q20" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="R20" s="14">
+        <f>4+59/60</f>
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="S20" s="14">
+        <f>8/60</f>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="T20" s="14">
         <v>0</v>
       </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U20" s="14">
+        <f>6/60</f>
+        <v>0.1</v>
+      </c>
+      <c r="V20" s="14">
+        <f>23/60</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="W20" s="17"/>
+      <c r="X20" s="14">
+        <f>43/60</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="Y20" s="14">
+        <f>4+44/60</f>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="Z20" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA20" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB20" s="14">
+        <f>4+49/60</f>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="AC20" s="14">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD20" s="14">
+        <f>4+52/60</f>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -5573,27 +6799,71 @@
         <f>5+3/60</f>
         <v>5.05</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="N21" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="O21" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="P21" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="Q21" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="R21" s="14">
+        <f>5+3/60</f>
+        <v>5.05</v>
+      </c>
+      <c r="S21" s="14">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T21" s="14">
+        <f>6/60</f>
+        <v>0.1</v>
+      </c>
       <c r="U21" s="14">
         <v>0</v>
       </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="V21" s="14">
+        <f>22/60</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="W21" s="17"/>
+      <c r="X21" s="14">
+        <f>42/60</f>
+        <v>0.7</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>4+46/60</f>
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="Z21" s="14">
+        <f>4+38/60</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="AA21" s="14">
+        <f>4+38/60</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="AB21" s="14">
+        <f>4+51/60</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="AD21" s="14">
+        <f>4+54/60</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -5644,63 +6914,108 @@
         <f>5+10/60</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
+      <c r="N22" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="O22" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="P22" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="Q22" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="R22" s="14">
+        <f>5+10/60</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="S22" s="14">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T22" s="14">
+        <f>23/60</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="U22" s="14">
+        <f>22/60</f>
+        <v>0.36666666666666664</v>
+      </c>
       <c r="V22" s="14">
         <v>0</v>
       </c>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="W22" s="17"/>
+      <c r="X22" s="14">
+        <f>28/60</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Y22" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Z22" s="14">
+        <f>4+12/60</f>
+        <v>4.2</v>
+      </c>
+      <c r="AA22" s="14">
+        <f>4+12/60</f>
+        <v>4.2</v>
+      </c>
+      <c r="AB22" s="14">
+        <f>4+25/60</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="AC22" s="14">
+        <f>4+5/60</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="AD22" s="14">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14">
-        <v>0</v>
-      </c>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5752,27 +7067,72 @@
         <f>4+5/6</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
+      <c r="N24" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="O24" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="P24" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="Q24" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="R24" s="14">
+        <f>4+5/6</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="S24" s="14">
+        <f>36/60</f>
+        <v>0.6</v>
+      </c>
+      <c r="T24" s="14">
+        <f>43/60</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="U24" s="14">
+        <f>42/60</f>
+        <v>0.7</v>
+      </c>
+      <c r="V24" s="14">
+        <f>28/60</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="W24" s="17"/>
       <c r="X24" s="14">
         <v>0</v>
       </c>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Y24" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z24" s="14">
+        <f>4+27/60</f>
+        <v>4.45</v>
+      </c>
+      <c r="AA24" s="14">
+        <f>4+27/60</f>
+        <v>4.45</v>
+      </c>
+      <c r="AB24" s="14">
+        <f>4.6666</f>
+        <v>4.6665999999999999</v>
+      </c>
+      <c r="AC24" s="14">
+        <f>4+19/60</f>
+        <v>4.3166666666666664</v>
+      </c>
+      <c r="AD24" s="14">
+        <f>4+43/60</f>
+        <v>4.7166666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5823,27 +7183,72 @@
         <f>4+55/60</f>
         <v>4.916666666666667</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="N25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="O25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="P25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="Q25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="R25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="S25" s="14">
+        <f>4+49/60</f>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="T25" s="14">
+        <f>4+44/60</f>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="U25" s="14">
+        <f>4+46/60</f>
+        <v>4.7666666666666666</v>
+      </c>
+      <c r="V25" s="14">
+        <f>4+55/60</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
       <c r="Y25" s="14">
         <v>0</v>
       </c>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Z25" s="14">
+        <f>39/60</f>
+        <v>0.65</v>
+      </c>
+      <c r="AA25" s="14">
+        <f>39/60</f>
+        <v>0.65</v>
+      </c>
+      <c r="AB25" s="14">
+        <f>52/60</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AC25" s="14">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD25" s="14">
+        <f>56/60</f>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5893,27 +7298,70 @@
         <f>5+19/60</f>
         <v>5.3166666666666664</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
+      <c r="N26" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="O26" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="P26" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="Q26" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="R26" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="S26" s="14">
+        <f>4+41/60</f>
+        <v>4.6833333333333336</v>
+      </c>
+      <c r="T26" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U26" s="14">
+        <f>4+38/60</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="V26" s="14">
+        <f>4+12/60</f>
+        <v>4.2</v>
+      </c>
+      <c r="W26" s="17"/>
+      <c r="X26" s="14">
+        <f>4+27/60</f>
+        <v>4.45</v>
+      </c>
+      <c r="Y26" s="14">
+        <f>39/60</f>
+        <v>0.65</v>
+      </c>
       <c r="Z26" s="14">
         <v>0</v>
       </c>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AC26">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD26" s="14">
+        <f>19/60</f>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5963,27 +7411,70 @@
         <f>5+19/60</f>
         <v>5.3166666666666664</v>
       </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
+      <c r="N27" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="O27" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="P27" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="Q27" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="R27" s="14">
+        <f>5+19/60</f>
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="S27" s="14">
+        <f>4+41/60</f>
+        <v>4.6833333333333336</v>
+      </c>
+      <c r="T27" s="14">
+        <f>4+36/60</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U27" s="14">
+        <f>4+38/60</f>
+        <v>4.6333333333333329</v>
+      </c>
+      <c r="V27" s="14">
+        <f>4+12/60</f>
+        <v>4.2</v>
+      </c>
+      <c r="W27" s="17"/>
+      <c r="X27" s="14">
+        <f>4+27/60</f>
+        <v>4.45</v>
+      </c>
+      <c r="Y27" s="14">
+        <f>39/60</f>
+        <v>0.65</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>0</v>
+      </c>
       <c r="AA27" s="14">
         <v>0</v>
       </c>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB27" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AC27">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AD27" s="14">
+        <f>19/60</f>
+        <v>0.31666666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -6035,27 +7526,70 @@
         <f>5+32/60</f>
         <v>5.5333333333333332</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
+      <c r="N28" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="O28" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="P28" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="Q28" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="R28" s="14">
+        <f>5+32/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="S28" s="14">
+        <f>4+54/60</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T28" s="14">
+        <f>4+49/60</f>
+        <v>4.8166666666666664</v>
+      </c>
+      <c r="U28" s="14">
+        <f>4+51/60</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="V28" s="14">
+        <f>4+25/60</f>
+        <v>4.416666666666667</v>
+      </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="14">
+        <f>4.6666</f>
+        <v>4.6665999999999999</v>
+      </c>
+      <c r="Y28" s="14">
+        <f>52/60</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0.25</v>
+      </c>
       <c r="AB28" s="14">
         <v>0</v>
       </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC28" s="14">
+        <f>23/60</f>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="AD28" s="14">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6107,27 +7641,71 @@
         <f>5+20/60</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="N29" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="O29" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="P29" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="Q29" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="R29" s="14">
+        <f>5+20/60</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S29" s="14">
+        <f>4+34/60</f>
+        <v>4.5666666666666664</v>
+      </c>
+      <c r="T29" s="14">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="U29" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="V29" s="14">
+        <f>4+5/60</f>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="W29" s="17"/>
+      <c r="X29" s="14">
+        <f>4+19/60</f>
+        <v>4.3166666666666664</v>
+      </c>
+      <c r="Y29" s="14">
+        <f>40/60</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z29">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AA29">
+        <f>10/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AB29" s="14">
+        <f>23/60</f>
+        <v>0.38333333333333336</v>
+      </c>
       <c r="AC29" s="14">
         <v>0</v>
       </c>
-      <c r="AD29" s="14"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="14">
+        <f>26/60</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6179,22 +7757,67 @@
         <f>5+36/60</f>
         <v>5.6</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
+      <c r="N30" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="O30" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="P30" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="Q30" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="R30" s="14">
+        <f>5+36/60</f>
+        <v>5.6</v>
+      </c>
+      <c r="S30" s="14">
+        <f>4+58/60</f>
+        <v>4.9666666666666668</v>
+      </c>
+      <c r="T30" s="14">
+        <f>4+52/60</f>
+        <v>4.8666666666666671</v>
+      </c>
+      <c r="U30" s="14">
+        <f>4+54/60</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V30" s="14">
+        <f>4.5</f>
+        <v>4.5</v>
+      </c>
+      <c r="W30" s="17"/>
+      <c r="X30" s="14">
+        <f>4+43/60</f>
+        <v>4.7166666666666668</v>
+      </c>
+      <c r="Y30" s="14">
+        <f>55/60</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Z30" s="14">
+        <f>19/60</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="AA30" s="14">
+        <f>19/60</f>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="AB30" s="14">
+        <f>16/60</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AC30" s="14">
+        <f>26/60</f>
+        <v>0.43333333333333335</v>
+      </c>
       <c r="AD30" s="14">
         <v>0</v>
       </c>

--- a/164 Mini Project Data .xlsx
+++ b/164 Mini Project Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitamehendale/Downloads/ieor164-mini-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4E037-CD54-504E-8D14-3FB4CA9D7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BC12D-D741-0E43-AAD8-DF24466B1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="740" windowWidth="21600" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="740" windowWidth="21600" windowHeight="17020" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Travel Time" sheetId="5" r:id="rId5"/>
     <sheet name="Gas Consumption Between Activit" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Distances 2" sheetId="8" r:id="rId8"/>
+    <sheet name="Activities 2" sheetId="9" r:id="rId9"/>
+    <sheet name="Lodgings 2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
   <si>
     <t>Sequoia National Park</t>
   </si>
@@ -269,9 +272,6 @@
     <t>Cost ($/person)</t>
   </si>
   <si>
-    <t xml:space="preserve">Category </t>
-  </si>
-  <si>
     <t xml:space="preserve">Park </t>
   </si>
   <si>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t>Artistis Palette - Death Valley</t>
+  </si>
+  <si>
+    <t>Cottonwood Campground - Joshua Tree</t>
+  </si>
+  <si>
+    <t>Furnace Creek Campground - Death Valley</t>
+  </si>
+  <si>
+    <t>Santa Cruz Island Scorpion Canyon Campground - Channel Islands</t>
+  </si>
+  <si>
+    <t>Lodgepole Campground-Sequoia and Kings Canyon National Park</t>
+  </si>
+  <si>
+    <t>LAX</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +457,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -451,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -466,11 +489,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,6 +620,31 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,9 +952,9 @@
   </sheetPr>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>74</v>
@@ -858,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
@@ -888,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -904,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -928,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -952,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -960,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -976,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -999,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1007,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -1023,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1047,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -1071,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1079,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -1094,7 +1222,7 @@
         <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1102,7 +1230,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="5">
         <v>70</v>
@@ -1114,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1125,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="6">
         <v>36.4</v>
@@ -1137,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -1171,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -1194,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -1212,7 +1340,7 @@
         <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1220,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -1243,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5">
         <v>149</v>
@@ -1255,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>49</v>
@@ -1266,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5">
         <v>153</v>
@@ -1278,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>49</v>
@@ -1289,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -1305,7 +1433,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -1329,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1337,7 +1465,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
@@ -1353,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -1377,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1385,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="15">
         <v>197</v>
@@ -1397,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -1424,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -1448,10 +1576,10 @@
         <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -1475,10 +1603,10 @@
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1486,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -1502,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1638,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -1526,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1534,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -1550,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1558,7 +1686,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -1574,7 +1702,57 @@
         <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA523C0-021F-BA47-A29B-D3D4483AEFA2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1587,19 +1765,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -1609,14 +1789,69 @@
       <c r="C1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>77</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <f>25/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <f>44/2</f>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <f>15/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1644,10 +1879,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1679,1623 +1914,1804 @@
     <col min="30" max="30" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="21">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="21">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="21">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="21">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="21">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="21">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="21">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="21">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="21">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="21">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="21">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="21">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="21">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="21">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="21">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="21">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="21">
         <v>19</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="21">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="21">
         <v>21</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="21">
         <v>22</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="21">
         <v>23</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="21">
         <v>24</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="21">
         <v>25</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="21">
         <v>26</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="21">
         <v>27</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="21">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="AE1" s="21">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="21">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="21">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
         <v>4.8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="24">
         <v>2.9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="24">
         <v>3.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="24">
         <v>3.8</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="24">
         <v>28.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="24">
         <v>29.3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="24">
         <v>61.7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="24">
         <v>28.3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="24">
         <v>28.6</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="24">
         <f>47.6</f>
         <v>47.6</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="24">
         <v>231</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="24">
         <v>231</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="24">
         <v>231</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="24">
         <v>231</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="24">
         <v>231</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="24">
         <v>231</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="24">
         <v>343</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="24">
         <v>339</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="24">
         <v>341</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="24">
         <v>352</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="24">
         <v>321</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="24">
         <v>338</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="24">
         <v>317</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="24">
         <v>342</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="24">
         <v>342</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="24">
         <v>354</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="24">
         <v>340</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="24">
         <v>353</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="AE2" s="24">
+        <v>381</v>
+      </c>
+      <c r="AF2" s="24">
+        <v>334</v>
+      </c>
+      <c r="AG2" s="24">
+        <v>231</v>
+      </c>
+      <c r="AH2" s="25"/>
+    </row>
+    <row r="3" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="24">
         <v>4.8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
         <v>7.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="24">
         <v>1.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="24">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="24">
         <v>33.299999999999997</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="24">
         <v>34.1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="24">
         <v>66.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="24">
         <v>33.1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="24">
         <v>33.4</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="24">
         <v>52.4</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="24">
         <v>232</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="24">
         <v>232</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="24">
         <v>232</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="24">
         <v>232</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="24">
         <v>232</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="24">
         <v>232</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="24">
         <v>343</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="24">
         <v>340</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="24">
         <v>341</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="24">
         <v>352</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="24">
         <v>321</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="24">
         <v>338</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="24">
         <v>317</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="24">
         <v>343</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="24">
         <v>343</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="24">
         <v>354</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="24">
         <v>344</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="24">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="AE3" s="24">
+        <v>384</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>335</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>232</v>
+      </c>
+      <c r="AH3" s="25"/>
+    </row>
+    <row r="4" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="24">
         <v>2.9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="24">
         <v>7.7</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
         <v>6.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="24">
         <v>6.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="24">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="24">
         <v>27.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="24">
         <v>60.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="24">
         <v>27.9</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="24">
         <v>27.2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="24">
         <v>46.2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="24">
         <v>234</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="24">
         <v>234</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="24">
         <v>234</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="24">
         <v>234</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="24">
         <v>234</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="24">
         <v>234</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="24">
         <v>346</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="24">
         <v>342</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="24">
         <v>344</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="24">
         <v>354</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="24">
         <v>345</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="24">
         <v>341</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="24">
         <v>320</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="24">
         <v>345</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="24">
         <v>345</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="24">
         <v>357</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="24">
         <v>347</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="24">
         <v>356</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="AE4" s="24">
+        <v>380</v>
+      </c>
+      <c r="AF4" s="24">
+        <v>338</v>
+      </c>
+      <c r="AG4" s="24">
+        <v>234</v>
+      </c>
+      <c r="AH4" s="25"/>
+    </row>
+    <row r="5" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="24">
         <v>3.8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="24">
         <v>1.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="24">
         <v>6.7</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
         <v>0.6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="24">
         <v>32.4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="24">
         <v>33.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="24">
         <v>65.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="24">
         <v>32.200000000000003</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="24">
         <v>32.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="24">
         <v>51.5</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="24">
         <v>231</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="24">
         <v>231</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="24">
         <v>231</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="24">
         <v>231</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="24">
         <v>231</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="24">
         <v>231</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="24">
         <v>342</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="24">
         <v>339</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="24">
         <v>340</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="24">
         <v>351</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="24">
         <v>341</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="24">
         <v>337</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="24">
         <v>316</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="24">
         <v>342</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="24">
         <v>342</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="24">
         <v>353</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="24">
         <v>343</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="24">
         <v>353</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="AE5" s="24">
+        <v>380</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>334</v>
+      </c>
+      <c r="AG5" s="24">
+        <v>231</v>
+      </c>
+      <c r="AH5" s="25"/>
+    </row>
+    <row r="6" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="24">
         <v>3.8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="24">
         <v>6.7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="24">
         <v>0.6</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
         <v>32.299999999999997</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="24">
         <v>33</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="24">
         <v>65.400000000000006</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="24">
         <v>32</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="24">
         <v>32.4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="24">
         <v>51.4</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="24">
         <v>231</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="24">
         <v>231</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="24">
         <v>231</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="24">
         <v>231</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="24">
         <v>231</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="24">
         <v>231</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="24">
         <v>342</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="24">
         <v>339</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="24">
         <v>340</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="24">
         <v>351</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="24">
         <v>341</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="24">
         <v>337</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="24">
         <v>316</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="24">
         <v>342</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="24">
         <v>342</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="24">
         <v>353</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="24">
         <v>343</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="24">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="AE6" s="24">
+        <v>380</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>334</v>
+      </c>
+      <c r="AG6" s="24">
+        <v>231</v>
+      </c>
+      <c r="AH6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="24">
         <v>28.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="24">
         <v>33.299999999999997</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="24">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <v>32.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
         <v>32.299999999999997</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="24">
         <v>36.5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="24">
         <v>3.2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="24">
         <v>3.5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="24">
         <v>22.5</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="24">
         <v>250</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="24">
         <v>250</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="24">
         <v>250</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="24">
         <v>250</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="24">
         <v>250</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="24">
         <v>250</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="24">
         <v>361</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="24">
         <v>358</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="24">
         <v>359</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="24">
         <v>370</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="24">
         <v>349</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="24">
         <v>356</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="24">
         <v>335</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="24">
         <v>361</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="24">
         <v>361</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="24">
         <v>372</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="24">
         <v>362</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="24">
         <v>372</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="AE7" s="24">
+        <v>397</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>367</v>
+      </c>
+      <c r="AG7" s="24">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="25"/>
+    </row>
+    <row r="8" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="24">
         <v>29.3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="24">
         <v>34.1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="24">
         <v>27.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="24">
         <v>33.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
         <v>33</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
         <v>34</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="24">
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="24">
         <v>0.5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="24">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="24">
         <v>254</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="24">
         <v>254</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="24">
         <v>254</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="24">
         <v>254</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="24">
         <v>254</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="24">
         <v>254</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="24">
         <v>365</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="24">
         <v>362</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="24">
         <v>363</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="24">
         <v>374</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="24">
         <v>347</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="24">
         <v>360</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="24">
         <v>339</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="24">
         <v>365</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="24">
         <v>365</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="24">
         <v>376</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="24">
         <v>366</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="24">
         <v>376</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="AE8" s="24">
+        <v>401</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>365</v>
+      </c>
+      <c r="AG8" s="24">
+        <v>254</v>
+      </c>
+      <c r="AH8" s="25"/>
+    </row>
+    <row r="9" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="24">
         <v>61.7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="24">
         <v>66.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>60.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <v>65.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
         <v>65.400000000000006</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="24">
         <v>36.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="24">
         <v>34</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
         <v>33.5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="24">
         <v>33.1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="24">
         <v>14.1</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="24">
         <v>286</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="24">
         <v>286</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="24">
         <v>286</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="24">
         <v>286</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="24">
         <v>286</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="24">
         <v>286</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="24">
         <v>398</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="24">
         <v>394</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="24">
         <v>396</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="24">
         <v>407</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="24">
         <v>373</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="24">
         <v>393</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="24">
         <v>372</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="24">
         <v>397</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="24">
         <v>397</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="24">
         <f>409</f>
         <v>409</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="24">
         <v>399</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="24">
         <v>408</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="AE9" s="24">
+        <v>434</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>392</v>
+      </c>
+      <c r="AG9" s="24">
+        <v>286</v>
+      </c>
+      <c r="AH9" s="25"/>
+    </row>
+    <row r="10" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="24">
         <v>28.3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="24">
         <v>33.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="24">
         <v>27.9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="24">
         <v>32.200000000000003</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="24">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="24">
         <v>3.2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="24">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="24">
         <v>33.5</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
         <v>0.8</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="24">
         <v>19.399999999999999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="24">
         <v>253</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="24">
         <v>253</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="24">
         <v>253</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="24">
         <v>253</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="24">
         <v>253</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="24">
         <v>253</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="24">
         <v>364</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="24">
         <v>361</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="24">
         <v>362</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="24">
         <v>373</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="24">
         <v>346</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="24">
         <v>359</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="24">
         <v>338</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="24">
         <v>338</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="24">
         <v>338</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="24">
         <v>375</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="24">
         <v>365</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="24">
         <v>365</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="AE10" s="24">
+        <v>400</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>364</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>253</v>
+      </c>
+      <c r="AH10" s="25"/>
+    </row>
+    <row r="11" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="24">
         <v>28.6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="24">
         <v>33.4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="24">
         <v>27.2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="24">
         <v>32.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="24">
         <v>32.4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="24">
         <v>3.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="24">
         <v>0.5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="24">
         <v>33.1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="24">
         <v>0.8</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
         <v>19</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="24">
         <v>253</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="24">
         <v>253</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="24">
         <v>253</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="24">
         <v>253</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="24">
         <v>253</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="24">
         <v>253</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="24">
         <v>365</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="24">
         <v>361</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="24">
         <v>363</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="24">
         <v>373</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="24">
         <v>346</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="24">
         <v>360</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="24">
         <v>339</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="24">
         <v>364</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="24">
         <v>364</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="24">
         <v>376</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="24">
         <v>366</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="24">
         <v>366</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="AE11" s="24">
+        <v>401</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>364</v>
+      </c>
+      <c r="AG11" s="24">
+        <v>253</v>
+      </c>
+      <c r="AH11" s="25"/>
+    </row>
+    <row r="12" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="24">
         <f>L2</f>
         <v>47.6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="24">
         <v>52.4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="24">
         <v>46.2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="24">
         <v>51.5</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="24">
         <v>51.4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="24">
         <v>22.5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="24">
         <v>20</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="24">
         <v>14.1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="24">
         <v>19.399999999999999</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="24">
         <v>19</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
         <v>272</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="24">
         <v>272</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="24">
         <v>272</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="24">
         <v>272</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="24">
         <v>272</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="24">
         <v>272</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="24">
         <v>384</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="24">
         <v>380</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="24">
         <v>382</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="24">
         <v>392</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="24">
         <v>359</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="24">
         <v>379</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="24">
         <v>358</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="24">
         <v>383</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="24">
         <v>383</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="24">
         <v>395</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="24">
         <v>385</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="24">
         <v>394</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="AE12" s="24">
+        <v>420</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>377</v>
+      </c>
+      <c r="AG12" s="24">
+        <v>272</v>
+      </c>
+      <c r="AH12" s="25"/>
+    </row>
+    <row r="13" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="24">
         <v>231</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="24">
         <v>232</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="24">
         <v>234</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="24">
         <v>231</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
         <v>231</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="24">
         <v>250</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="24">
         <v>254</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="24">
         <v>286</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="24">
         <v>253</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="24">
         <v>253</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="24">
         <v>272</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0</v>
+      </c>
+      <c r="S13" s="24">
         <v>224</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="24">
         <v>220</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="24">
         <v>222</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="24">
         <v>233</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="24">
         <v>188</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="24">
         <v>219</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="24">
         <v>258</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="24">
         <v>284</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="24">
         <v>284</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="24">
         <v>295</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="24">
         <v>285</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="AE13" s="24">
+        <v>227</v>
+      </c>
+      <c r="AF13" s="24">
+        <v>280</v>
+      </c>
+      <c r="AG13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="24">
         <v>231</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="24">
         <v>232</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="24">
         <v>234</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="24">
         <v>231</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="24">
         <v>231</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="24">
         <v>250</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="24">
         <v>254</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="24">
         <v>286</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="24">
         <v>253</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="24">
         <v>253</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="24">
         <v>272</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <v>0</v>
+      </c>
+      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="P14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>0</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0</v>
+      </c>
+      <c r="S14" s="24">
         <v>224</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="24">
         <v>220</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="24">
         <v>222</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="24">
         <v>233</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="24">
         <v>188</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="24">
         <v>219</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="24">
         <v>258</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="24">
         <v>284</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="24">
         <v>284</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="24">
         <v>295</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="24">
         <v>285</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="AE14" s="24">
+        <v>227</v>
+      </c>
+      <c r="AF14" s="24">
+        <v>280</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="24">
         <v>231</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="24">
         <v>232</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="24">
         <v>234</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="24">
         <v>231</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
         <v>231</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="24">
         <v>250</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="24">
         <v>254</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="24">
         <v>286</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="24">
         <v>253</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="24">
         <v>253</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="24">
         <v>272</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
+      <c r="M15" s="24">
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="P15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>0</v>
+      </c>
+      <c r="R15" s="24">
+        <v>0</v>
+      </c>
+      <c r="S15" s="24">
         <v>224</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="24">
         <v>220</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="24">
         <v>222</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="24">
         <v>233</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="24">
         <v>188</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="24">
         <v>219</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="24">
         <v>258</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="24">
         <v>284</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="24">
         <v>284</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="24">
         <v>295</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="24">
         <v>285</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="AE15" s="24">
+        <v>227</v>
+      </c>
+      <c r="AF15" s="24">
+        <v>280</v>
+      </c>
+      <c r="AG15" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="24">
         <v>231</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="24">
         <v>232</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="24">
         <v>234</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="24">
         <v>231</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="24">
         <v>231</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="24">
         <v>250</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="24">
         <v>254</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="24">
         <v>286</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="24">
         <v>253</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="24">
         <v>253</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="24">
         <v>272</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <v>0</v>
+      </c>
+      <c r="S16" s="24">
         <v>224</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="24">
         <v>220</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="24">
         <v>222</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="24">
         <v>233</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="24">
         <v>188</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="24">
         <v>219</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="24">
         <v>258</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="24">
         <v>284</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="24">
         <v>284</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="24">
         <v>295</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="24">
         <v>285</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="AE16" s="24">
+        <v>227</v>
+      </c>
+      <c r="AF16" s="24">
+        <v>280</v>
+      </c>
+      <c r="AG16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="24">
         <v>231</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="24">
         <v>232</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="24">
         <v>234</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="24">
         <v>231</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="24">
         <v>231</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="24">
         <v>250</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="24">
         <v>254</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="24">
         <v>286</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="24">
         <v>253</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="24">
         <v>253</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="24">
         <v>272</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0</v>
+      </c>
+      <c r="P17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>0</v>
+      </c>
+      <c r="R17" s="24">
+        <v>0</v>
+      </c>
+      <c r="S17" s="24">
         <v>224</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="24">
         <v>220</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="24">
         <v>222</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="24">
         <v>233</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="24">
         <v>188</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="24">
         <v>219</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="24">
         <v>258</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="24">
         <v>284</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="24">
         <v>284</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="24">
         <v>295</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="24">
         <v>285</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="AE17" s="24">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AF17" s="24">
+        <v>255</v>
+      </c>
+      <c r="AG17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="25"/>
+    </row>
+    <row r="18" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="24">
         <v>231</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="24">
         <v>232</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="24">
         <v>234</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="24">
         <v>231</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="24">
         <v>231</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="24">
         <v>250</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="24">
         <v>254</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="24">
         <v>286</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="24">
         <v>253</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="24">
         <v>253</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="24">
         <v>272</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
+      <c r="M18" s="24">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="P18" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0</v>
+      </c>
+      <c r="R18" s="24">
         <v>0</v>
       </c>
       <c r="S18" s="16">
@@ -3310,7 +3726,7 @@
       <c r="V18" s="16">
         <v>233</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="24">
         <v>188</v>
       </c>
       <c r="X18" s="16">
@@ -3322,1123 +3738,1631 @@
       <c r="Z18" s="16">
         <v>284</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AA18" s="24">
         <v>284</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AB18" s="24">
         <v>295</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AC18" s="24">
         <v>285</v>
       </c>
-      <c r="AD18" s="16">
+      <c r="AD18" s="24">
         <v>295</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="AE18" s="24">
+        <v>42.9</v>
+      </c>
+      <c r="AF18" s="24">
+        <v>274</v>
+      </c>
+      <c r="AG18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="25"/>
+    </row>
+    <row r="19" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="24">
         <v>343</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="24">
         <v>343</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="24">
         <v>346</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="24">
         <v>342</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="24">
         <v>342</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="24">
         <v>361</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="24">
         <v>365</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="24">
         <v>398</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="24">
         <v>364</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="24">
         <v>365</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="24">
         <v>384</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="24">
         <v>224</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="24">
         <v>224</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="24">
         <v>224</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="24">
         <v>224</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="24">
         <v>224</v>
       </c>
       <c r="R19" s="16">
         <v>224</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="S19" s="24">
+        <v>0</v>
+      </c>
+      <c r="T19" s="24">
         <v>4.2</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="24">
         <v>5.4</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="24">
         <v>10.5</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="24">
         <v>22.1</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="24">
         <v>23.3</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="24">
         <v>271</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="24">
         <v>278</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="24">
         <v>278</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="24">
         <v>290</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="24">
         <v>273</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="24">
         <v>289</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="AE19" s="24">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AF19" s="24">
+        <v>275</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>224</v>
+      </c>
+      <c r="AH19" s="25"/>
+    </row>
+    <row r="20" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="24">
         <v>339</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="24">
         <v>340</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="24">
         <v>342</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="24">
         <v>339</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="24">
         <v>339</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="24">
         <v>358</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="24">
         <v>362</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="24">
         <v>394</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="24">
         <v>361</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="24">
         <v>361</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="24">
         <v>380</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="24">
         <v>220</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="24">
         <v>220</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="24">
         <v>220</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="24">
         <v>220</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="24">
         <v>220</v>
       </c>
       <c r="R20" s="16">
         <v>220</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="24">
         <v>4.2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="T20" s="24">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24">
         <v>2.1</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="24">
         <v>14.6</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="24">
         <v>19.600000000000001</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="24">
         <v>26.9</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="24">
         <v>267</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="24">
         <v>275</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="24">
         <v>275</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="24">
         <v>286</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="24">
         <v>269</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="24">
         <v>286</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="AE20" s="24">
+        <v>28.1</v>
+      </c>
+      <c r="AF20" s="24">
+        <v>289</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>220</v>
+      </c>
+      <c r="AH20" s="25"/>
+    </row>
+    <row r="21" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="24">
         <v>341</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="24">
         <v>341</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="24">
         <v>344</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="24">
         <v>340</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="24">
         <v>340</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="24">
         <v>359</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="24">
         <v>363</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="24">
         <v>396</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="24">
         <v>362</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="24">
         <v>363</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="24">
         <v>382</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="24">
         <v>222</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="24">
         <v>222</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="24">
         <v>222</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="24">
         <v>222</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="24">
         <v>222</v>
       </c>
       <c r="R21" s="16">
         <v>222</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="24">
         <v>5.4</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="24">
         <v>2.1</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="U21" s="24">
+        <v>0</v>
+      </c>
+      <c r="V21" s="24">
         <v>11.3</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="24">
         <v>21</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="24">
         <v>28.2</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="24">
         <v>269</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="24">
         <v>276</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="24">
         <v>276</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="24">
         <v>287</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="24">
         <v>271</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="24">
         <v>287</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="AE21" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="AF21" s="24">
+        <v>271</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>222</v>
+      </c>
+      <c r="AH21" s="25"/>
+    </row>
+    <row r="22" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="24">
         <v>352</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="24">
         <v>352</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="24">
         <v>354</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="24">
         <v>351</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="24">
         <v>351</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="24">
         <v>370</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="24">
         <v>374</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="24">
         <v>407</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="24">
         <v>373</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="24">
         <v>373</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="24">
         <v>392</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="24">
         <v>233</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="24">
         <v>233</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="24">
         <v>233</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="24">
         <v>233</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="24">
         <v>233</v>
       </c>
       <c r="R22" s="16">
         <v>233</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="24">
         <v>10.5</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="24">
         <v>14.6</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="24">
         <v>11.3</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="V22" s="24">
+        <v>0</v>
+      </c>
+      <c r="W22" s="24">
         <v>34.200000000000003</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="24">
         <v>17.399999999999999</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="24">
         <v>280</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="24">
         <v>248</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="24">
         <v>248</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="24">
         <v>260</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="24">
         <v>243</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="24">
         <v>259</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="AE22" s="24">
+        <v>45.6</v>
+      </c>
+      <c r="AF22" s="24">
+        <v>272</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>233</v>
+      </c>
+      <c r="AH22" s="25"/>
+    </row>
+    <row r="23" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="24">
         <v>321</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="24">
         <v>321</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="24">
         <v>345</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="24">
         <v>341</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="24">
         <v>341</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="24">
         <v>349</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="24">
         <v>347</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="24">
         <v>373</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="24">
         <v>346</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="24">
         <v>346</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="24">
         <v>359</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="24">
         <v>188</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="24">
         <v>188</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="24">
         <v>188</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="24">
         <v>188</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="24">
         <v>188</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="24">
         <v>188</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="24">
         <v>22.1</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="24">
         <v>19.600000000000001</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="24">
         <v>21</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="24">
         <v>34.200000000000003</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="W23" s="24">
+        <v>0</v>
+      </c>
+      <c r="X23" s="24">
         <v>19.2</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="24">
         <v>249</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="24">
         <v>256</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="24">
         <v>256</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="24">
         <v>267</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="24">
         <v>251</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="24">
         <v>267</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="AE23" s="24">
+        <v>318</v>
+      </c>
+      <c r="AF23" s="24">
+        <v>26.6</v>
+      </c>
+      <c r="AG23" s="24">
+        <v>188</v>
+      </c>
+      <c r="AH23" s="25"/>
+    </row>
+    <row r="24" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="24">
         <v>338</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="24">
         <v>338</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="24">
         <v>341</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="24">
         <v>337</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="24">
         <v>337</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="24">
         <v>356</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="24">
         <v>360</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="24">
         <v>393</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="24">
         <v>359</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="24">
         <v>360</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="24">
         <v>379</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="24">
         <v>219</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="24">
         <v>219</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="24">
         <v>219</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="24">
         <v>219</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="24">
         <v>219</v>
       </c>
       <c r="R24" s="16">
         <v>219</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="24">
         <v>23.3</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="24">
         <v>26.9</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="24">
         <v>28.2</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="24">
         <v>17.399999999999999</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="24">
         <v>19.2</v>
       </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="X24" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
         <v>266</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="24">
         <v>273</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="24">
         <v>273</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="24">
         <v>284</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="24">
         <v>268</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="24">
         <v>284</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="AE24" s="24">
+        <v>352</v>
+      </c>
+      <c r="AF24" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>219</v>
+      </c>
+      <c r="AH24" s="25"/>
+    </row>
+    <row r="25" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="24">
         <v>317</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="24">
         <v>317</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="24">
         <v>320</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="24">
         <v>316</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="24">
         <v>316</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="24">
         <v>335</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="24">
         <v>339</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="24">
         <v>372</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="24">
         <v>338</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="24">
         <v>339</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="24">
         <v>358</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="24">
         <v>258</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="24">
         <v>258</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="24">
         <v>258</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="24">
         <v>258</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="24">
         <v>258</v>
       </c>
       <c r="R25" s="16">
         <v>258</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="24">
         <v>271</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="24">
         <v>267</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="24">
         <v>269</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="24">
         <v>280</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="24">
         <v>249</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="24">
         <v>266</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
+      <c r="Y25" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="24">
         <v>30.2</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="24">
         <v>30.2</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="24">
         <v>41.5</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="24">
         <v>31.7</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="24">
         <v>41.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="AE25" s="24">
+        <v>352</v>
+      </c>
+      <c r="AF25" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>258</v>
+      </c>
+      <c r="AH25" s="25"/>
+    </row>
+    <row r="26" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="24">
         <v>342</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="24">
         <v>343</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="24">
         <v>345</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="24">
         <v>342</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="24">
         <v>342</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="24">
         <v>361</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="24">
         <v>365</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="24">
         <v>397</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="24">
         <v>338</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="24">
         <v>364</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="24">
         <v>383</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="24">
         <v>284</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="24">
         <v>284</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="24">
         <v>284</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="24">
         <v>284</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="24">
         <v>284</v>
       </c>
       <c r="R26" s="16">
         <v>284</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="24">
         <v>278</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="24">
         <v>275</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="24">
         <v>276</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="24">
         <v>248</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="24">
         <v>256</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="24">
         <v>273</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="24">
         <v>30.2</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
+      <c r="Z26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="24">
         <v>11.4</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="24">
         <v>5.7</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="24">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="AE26" s="24">
+        <v>363</v>
+      </c>
+      <c r="AF26" s="24">
+        <v>15.2</v>
+      </c>
+      <c r="AG26" s="16">
+        <v>284</v>
+      </c>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="24">
         <v>342</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="24">
         <v>343</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="24">
         <v>345</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="24">
         <v>342</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="24">
         <v>342</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="24">
         <v>361</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="24">
         <v>365</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="24">
         <v>397</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="24">
         <v>338</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="24">
         <v>364</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="24">
         <v>383</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="24">
         <v>284</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="24">
         <v>284</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="24">
         <v>284</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="24">
         <v>284</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="24">
         <v>284</v>
       </c>
       <c r="R27" s="16">
         <v>284</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="24">
         <v>278</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="24">
         <v>275</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="24">
         <v>276</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="24">
         <v>248</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="24">
         <v>256</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="24">
         <v>273</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="24">
         <v>30.2</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
+      <c r="Z27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="24">
         <v>11.4</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="24">
         <v>5.7</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="24">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="AE27" s="24">
+        <v>347</v>
+      </c>
+      <c r="AF27" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="AG27" s="16">
+        <v>284</v>
+      </c>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="24">
         <v>354</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="24">
         <v>354</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="24">
         <v>357</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="24">
         <v>353</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="24">
         <v>353</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="24">
         <v>372</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="24">
         <v>376</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="24">
         <f>409</f>
         <v>409</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="24">
         <v>375</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="24">
         <v>376</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="24">
         <v>395</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="24">
         <v>295</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="24">
         <v>295</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="24">
         <v>295</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="24">
         <v>295</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="24">
         <v>295</v>
       </c>
       <c r="R28" s="16">
         <v>295</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="24">
         <v>290</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="24">
         <v>286</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="24">
         <v>287</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="24">
         <v>260</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="24">
         <v>267</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="24">
         <v>284</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="24">
         <v>41.5</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="24">
         <v>11.4</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="24">
         <v>11.4</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AB28" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24">
         <v>17</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="24">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="AE28" s="24">
+        <v>363</v>
+      </c>
+      <c r="AF28" s="24">
+        <v>14.7</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>295</v>
+      </c>
+      <c r="AH28" s="25"/>
+    </row>
+    <row r="29" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="24">
         <v>340</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="24">
         <v>344</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="24">
         <v>347</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="24">
         <v>343</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="24">
         <v>343</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="24">
         <v>362</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="24">
         <v>366</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="24">
         <v>399</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="24">
         <v>365</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="24">
         <v>366</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="24">
         <v>385</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="24">
         <v>285</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="24">
         <v>285</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="24">
         <v>285</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="24">
         <v>285</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="24">
         <v>285</v>
       </c>
       <c r="R29" s="16">
         <v>285</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="24">
         <v>273</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="24">
         <v>269</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="24">
         <v>271</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="24">
         <v>243</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="24">
         <v>251</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="24">
         <v>268</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="24">
         <v>31.7</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="24">
         <v>5.7</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="24">
         <v>5.7</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="24">
         <v>17</v>
       </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
+      <c r="AC29" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="24">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="AE29" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="24">
+        <v>353</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>285</v>
+      </c>
+      <c r="AH29" s="25"/>
+    </row>
+    <row r="30" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="24">
         <v>353</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="24">
         <v>354</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="24">
         <v>356</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="24">
         <v>353</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="24">
         <v>353</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="24">
         <v>372</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="24">
         <v>376</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="24">
         <v>408</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="24">
         <v>365</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="24">
         <v>366</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="24">
         <v>394</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="24">
         <v>295</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="24">
         <v>295</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="24">
         <v>295</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="24">
         <v>295</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="24">
         <v>295</v>
       </c>
       <c r="R30" s="16">
         <v>295</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="24">
         <v>289</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="24">
         <v>286</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="24">
         <v>287</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="24">
         <v>259</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="24">
         <v>267</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="24">
         <v>284</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="24">
         <v>41.2</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="24">
         <v>11.1</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="24">
         <v>11.1</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="24">
         <v>9.4</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="24">
         <v>16.7</v>
       </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
+      <c r="AD30" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="24">
+        <v>352</v>
+      </c>
+      <c r="AF30" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>295</v>
+      </c>
+      <c r="AH30" s="25"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>29</v>
+      </c>
+      <c r="B31" s="24">
+        <v>381</v>
+      </c>
+      <c r="C31" s="24">
+        <v>384</v>
+      </c>
+      <c r="D31" s="24">
+        <v>380</v>
+      </c>
+      <c r="E31" s="24">
+        <v>380</v>
+      </c>
+      <c r="F31" s="24">
+        <v>380</v>
+      </c>
+      <c r="G31" s="24">
+        <v>397</v>
+      </c>
+      <c r="H31" s="24">
+        <v>401</v>
+      </c>
+      <c r="I31" s="24">
+        <v>434</v>
+      </c>
+      <c r="J31" s="24">
+        <v>400</v>
+      </c>
+      <c r="K31" s="24">
+        <v>401</v>
+      </c>
+      <c r="L31" s="24">
+        <v>420</v>
+      </c>
+      <c r="M31" s="24">
+        <v>227</v>
+      </c>
+      <c r="N31" s="24">
+        <v>227</v>
+      </c>
+      <c r="O31" s="24">
+        <v>227</v>
+      </c>
+      <c r="P31" s="24">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>227</v>
+      </c>
+      <c r="R31" s="24">
+        <v>227</v>
+      </c>
+      <c r="S31" s="24">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="T31" s="24">
+        <v>42.9</v>
+      </c>
+      <c r="U31" s="24">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="V31" s="24">
+        <v>28.1</v>
+      </c>
+      <c r="W31" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="X31" s="24">
+        <v>45.6</v>
+      </c>
+      <c r="Y31" s="24">
+        <v>318</v>
+      </c>
+      <c r="Z31" s="24">
+        <v>352</v>
+      </c>
+      <c r="AA31" s="24">
+        <v>352</v>
+      </c>
+      <c r="AB31" s="24">
+        <v>363</v>
+      </c>
+      <c r="AC31" s="24">
+        <v>347</v>
+      </c>
+      <c r="AD31" s="24">
+        <v>363</v>
+      </c>
+      <c r="AE31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="24">
+        <v>352</v>
+      </c>
+      <c r="AG31" s="24">
+        <v>227</v>
+      </c>
+      <c r="AH31" s="25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>30</v>
+      </c>
+      <c r="B32" s="24">
+        <v>334</v>
+      </c>
+      <c r="C32" s="24">
+        <v>335</v>
+      </c>
+      <c r="D32" s="24">
+        <v>338</v>
+      </c>
+      <c r="E32" s="24">
+        <v>334</v>
+      </c>
+      <c r="F32" s="24">
+        <v>334</v>
+      </c>
+      <c r="G32" s="24">
+        <v>367</v>
+      </c>
+      <c r="H32" s="24">
+        <v>365</v>
+      </c>
+      <c r="I32" s="24">
+        <v>392</v>
+      </c>
+      <c r="J32" s="24">
+        <v>364</v>
+      </c>
+      <c r="K32" s="24">
+        <v>364</v>
+      </c>
+      <c r="L32" s="24">
+        <v>377</v>
+      </c>
+      <c r="M32" s="24">
+        <v>280</v>
+      </c>
+      <c r="N32" s="24">
+        <v>280</v>
+      </c>
+      <c r="O32" s="24">
+        <v>280</v>
+      </c>
+      <c r="P32" s="24">
+        <v>280</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>280</v>
+      </c>
+      <c r="R32" s="24">
+        <v>280</v>
+      </c>
+      <c r="S32" s="24">
+        <v>255</v>
+      </c>
+      <c r="T32" s="24">
+        <v>274</v>
+      </c>
+      <c r="U32" s="24">
+        <v>275</v>
+      </c>
+      <c r="V32" s="24">
+        <v>289</v>
+      </c>
+      <c r="W32" s="24">
+        <v>271</v>
+      </c>
+      <c r="X32" s="24">
+        <v>272</v>
+      </c>
+      <c r="Y32" s="24">
+        <v>26.6</v>
+      </c>
+      <c r="Z32" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="AA32" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="AB32" s="24">
+        <v>15.2</v>
+      </c>
+      <c r="AC32" s="24">
+        <v>5.4</v>
+      </c>
+      <c r="AD32" s="24">
+        <v>14.7</v>
+      </c>
+      <c r="AE32" s="24">
+        <v>353</v>
+      </c>
+      <c r="AF32" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="24">
+        <v>280</v>
+      </c>
+      <c r="AH32" s="25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>31</v>
+      </c>
+      <c r="B33" s="24">
+        <v>231</v>
+      </c>
+      <c r="C33" s="24">
+        <v>232</v>
+      </c>
+      <c r="D33" s="24">
+        <v>234</v>
+      </c>
+      <c r="E33" s="24">
+        <v>231</v>
+      </c>
+      <c r="F33" s="24">
+        <v>231</v>
+      </c>
+      <c r="G33" s="24">
+        <v>250</v>
+      </c>
+      <c r="H33" s="24">
+        <v>254</v>
+      </c>
+      <c r="I33" s="24">
+        <v>286</v>
+      </c>
+      <c r="J33" s="24">
+        <v>253</v>
+      </c>
+      <c r="K33" s="24">
+        <v>253</v>
+      </c>
+      <c r="L33" s="24">
+        <v>272</v>
+      </c>
+      <c r="M33" s="24">
+        <v>0</v>
+      </c>
+      <c r="N33" s="24">
+        <v>0</v>
+      </c>
+      <c r="O33" s="24">
+        <v>0</v>
+      </c>
+      <c r="P33" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>0</v>
+      </c>
+      <c r="R33" s="24">
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <v>224</v>
+      </c>
+      <c r="T33" s="16">
+        <v>220</v>
+      </c>
+      <c r="U33" s="16">
+        <v>222</v>
+      </c>
+      <c r="V33" s="16">
+        <v>233</v>
+      </c>
+      <c r="W33" s="24">
+        <v>188</v>
+      </c>
+      <c r="X33" s="16">
+        <v>219</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>258</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>284</v>
+      </c>
+      <c r="AA33" s="24">
+        <v>284</v>
+      </c>
+      <c r="AB33" s="24">
+        <v>295</v>
+      </c>
+      <c r="AC33" s="24">
+        <v>285</v>
+      </c>
+      <c r="AD33" s="24">
+        <v>295</v>
+      </c>
+      <c r="AE33" s="24">
+        <v>227</v>
+      </c>
+      <c r="AF33" s="24">
+        <v>280</v>
+      </c>
+      <c r="AG33" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>32</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27">
+        <v>246</v>
+      </c>
+      <c r="N34" s="27">
+        <v>246</v>
+      </c>
+      <c r="O34" s="27">
+        <v>246</v>
+      </c>
+      <c r="P34" s="27">
+        <v>246</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>246</v>
+      </c>
+      <c r="R34" s="27">
+        <v>246</v>
+      </c>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27">
+        <v>345</v>
+      </c>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27">
+        <v>342</v>
+      </c>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27">
+        <v>383</v>
+      </c>
+      <c r="AF34">
+        <v>336</v>
+      </c>
+      <c r="AG34" s="27">
+        <v>246</v>
+      </c>
+      <c r="AH34" s="28"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8452,4 +9376,933 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E009EB0C-CB2D-1C40-95C5-D34DF3733842}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21">
+        <v>2</v>
+      </c>
+      <c r="E1" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21">
+        <v>4</v>
+      </c>
+      <c r="G1" s="21">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21">
+        <v>6</v>
+      </c>
+      <c r="I1" s="21">
+        <v>7</v>
+      </c>
+      <c r="J1" s="21">
+        <v>8</v>
+      </c>
+      <c r="K1" s="21">
+        <v>9</v>
+      </c>
+      <c r="L1" s="21">
+        <v>10</v>
+      </c>
+      <c r="M1" s="32">
+        <v>11</v>
+      </c>
+      <c r="N1" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="F2" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="G2" s="24">
+        <v>28.5</v>
+      </c>
+      <c r="H2" s="24">
+        <v>29.3</v>
+      </c>
+      <c r="I2" s="24">
+        <v>61.7</v>
+      </c>
+      <c r="J2" s="24">
+        <v>28.3</v>
+      </c>
+      <c r="K2" s="24">
+        <v>28.6</v>
+      </c>
+      <c r="L2" s="24">
+        <f>47.6</f>
+        <v>47.6</v>
+      </c>
+      <c r="M2" s="24">
+        <v>200</v>
+      </c>
+      <c r="N2" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="24">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H3" s="24">
+        <v>34.1</v>
+      </c>
+      <c r="I3" s="24">
+        <v>66.5</v>
+      </c>
+      <c r="J3" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="K3" s="24">
+        <v>33.4</v>
+      </c>
+      <c r="L3" s="24">
+        <v>52.4</v>
+      </c>
+      <c r="M3" s="24">
+        <v>200</v>
+      </c>
+      <c r="N3" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2.9</v>
+      </c>
+      <c r="C4" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="F4" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="G4" s="24">
+        <v>27</v>
+      </c>
+      <c r="H4" s="24">
+        <v>27.8</v>
+      </c>
+      <c r="I4" s="24">
+        <v>60.2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>27.9</v>
+      </c>
+      <c r="K4" s="24">
+        <v>27.2</v>
+      </c>
+      <c r="L4" s="24">
+        <v>46.2</v>
+      </c>
+      <c r="M4" s="24">
+        <v>200</v>
+      </c>
+      <c r="N4" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="24">
+        <v>32.4</v>
+      </c>
+      <c r="H5" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="I5" s="24">
+        <v>65.5</v>
+      </c>
+      <c r="J5" s="24">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K5" s="24">
+        <v>32.5</v>
+      </c>
+      <c r="L5" s="24">
+        <v>51.5</v>
+      </c>
+      <c r="M5" s="24">
+        <v>200</v>
+      </c>
+      <c r="N5" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>6.7</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H6" s="24">
+        <v>33</v>
+      </c>
+      <c r="I6" s="24">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="J6" s="24">
+        <v>32</v>
+      </c>
+      <c r="K6" s="24">
+        <v>32.4</v>
+      </c>
+      <c r="L6" s="24">
+        <v>51.4</v>
+      </c>
+      <c r="M6" s="24">
+        <v>200</v>
+      </c>
+      <c r="N6" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>28.5</v>
+      </c>
+      <c r="C7" s="24">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D7" s="24">
+        <v>27</v>
+      </c>
+      <c r="E7" s="24">
+        <v>32.4</v>
+      </c>
+      <c r="F7" s="24">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I7" s="24">
+        <v>36.5</v>
+      </c>
+      <c r="J7" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="K7" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="L7" s="24">
+        <v>22.5</v>
+      </c>
+      <c r="M7" s="24">
+        <v>200</v>
+      </c>
+      <c r="N7" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>29.3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>34.1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>27.8</v>
+      </c>
+      <c r="E8" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>33</v>
+      </c>
+      <c r="G8" s="24">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>34</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="24">
+        <v>20</v>
+      </c>
+      <c r="M8" s="24">
+        <v>200</v>
+      </c>
+      <c r="N8" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>61.7</v>
+      </c>
+      <c r="C9" s="24">
+        <v>66.5</v>
+      </c>
+      <c r="D9" s="24">
+        <v>60.2</v>
+      </c>
+      <c r="E9" s="24">
+        <v>65.5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="G9" s="24">
+        <v>36.5</v>
+      </c>
+      <c r="H9" s="24">
+        <v>34</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>33.5</v>
+      </c>
+      <c r="K9" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="L9" s="24">
+        <v>14.1</v>
+      </c>
+      <c r="M9" s="24">
+        <v>200</v>
+      </c>
+      <c r="N9" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24">
+        <v>28.3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>27.9</v>
+      </c>
+      <c r="E10" s="24">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F10" s="24">
+        <v>32</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24">
+        <v>33.5</v>
+      </c>
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M10" s="24">
+        <v>200</v>
+      </c>
+      <c r="N10" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>28.6</v>
+      </c>
+      <c r="C11" s="24">
+        <v>33.4</v>
+      </c>
+      <c r="D11" s="24">
+        <v>27.2</v>
+      </c>
+      <c r="E11" s="24">
+        <v>32.5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>32.4</v>
+      </c>
+      <c r="G11" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="24">
+        <v>33.1</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="24">
+        <v>19</v>
+      </c>
+      <c r="M11" s="24">
+        <v>200</v>
+      </c>
+      <c r="N11" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24">
+        <f>L2</f>
+        <v>47.6</v>
+      </c>
+      <c r="C12" s="24">
+        <v>52.4</v>
+      </c>
+      <c r="D12" s="24">
+        <v>46.2</v>
+      </c>
+      <c r="E12" s="24">
+        <v>51.5</v>
+      </c>
+      <c r="F12" s="24">
+        <v>51.4</v>
+      </c>
+      <c r="G12" s="24">
+        <v>22.5</v>
+      </c>
+      <c r="H12" s="24">
+        <v>20</v>
+      </c>
+      <c r="I12" s="24">
+        <v>14.1</v>
+      </c>
+      <c r="J12" s="24">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K12" s="24">
+        <v>19</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>200</v>
+      </c>
+      <c r="N12" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24">
+        <v>200</v>
+      </c>
+      <c r="C13" s="24">
+        <v>200</v>
+      </c>
+      <c r="D13" s="24">
+        <v>200</v>
+      </c>
+      <c r="E13" s="24">
+        <v>200</v>
+      </c>
+      <c r="F13" s="24">
+        <v>200</v>
+      </c>
+      <c r="G13" s="24">
+        <v>200</v>
+      </c>
+      <c r="H13" s="24">
+        <v>200</v>
+      </c>
+      <c r="I13" s="24">
+        <v>200</v>
+      </c>
+      <c r="J13" s="24">
+        <v>200</v>
+      </c>
+      <c r="K13" s="24">
+        <v>200</v>
+      </c>
+      <c r="L13" s="24">
+        <v>200</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>15</v>
+      </c>
+      <c r="C14" s="31">
+        <v>15</v>
+      </c>
+      <c r="D14" s="31">
+        <v>20</v>
+      </c>
+      <c r="E14" s="31">
+        <v>15</v>
+      </c>
+      <c r="F14" s="31">
+        <v>10</v>
+      </c>
+      <c r="G14" s="31">
+        <v>25</v>
+      </c>
+      <c r="H14" s="31">
+        <v>25</v>
+      </c>
+      <c r="I14" s="31">
+        <v>25</v>
+      </c>
+      <c r="J14" s="31">
+        <v>25</v>
+      </c>
+      <c r="K14" s="31">
+        <v>25</v>
+      </c>
+      <c r="L14" s="31">
+        <v>25</v>
+      </c>
+      <c r="M14" s="31">
+        <v>25</v>
+      </c>
+      <c r="N14" s="31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D6B06F-A1A8-4741-B2E5-19DDBA5366D7}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f>0+2</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <f>0+3</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f>1+1+1</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="6">
+        <v>36.4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>